--- a/prisma/ArjunData/20230319_MM_folders/19th Century Composers/Tchaikovsky /Orchestral/Orchestral Works.xlsx
+++ b/prisma/ArjunData/20230319_MM_folders/19th Century Composers/Tchaikovsky /Orchestral/Orchestral Works.xlsx
@@ -1,153 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
-    <t>Composer</t>
+    <t xml:space="preserve">Composer</t>
   </si>
   <si>
-    <t>Title</t>
+    <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t>Year of Composition</t>
+    <t xml:space="preserve">Year of Composition</t>
   </si>
   <si>
-    <t>Year of Publication</t>
+    <t xml:space="preserve">Year of Publication</t>
   </si>
   <si>
-    <t>Publisher</t>
+    <t xml:space="preserve">Publisher</t>
   </si>
   <si>
-    <t>Editor</t>
+    <t xml:space="preserve">Editor</t>
   </si>
   <si>
-    <t>Movement of Work</t>
+    <t xml:space="preserve">Movement of Work</t>
   </si>
   <si>
-    <t>Key</t>
+    <t xml:space="preserve">Key</t>
   </si>
   <si>
-    <t>Tempo Indication</t>
+    <t xml:space="preserve">Tempo Indication</t>
   </si>
   <si>
-    <t>Metre</t>
+    <t xml:space="preserve">Metre</t>
   </si>
   <si>
-    <t>Metronome Marking</t>
+    <t xml:space="preserve">Metronome Marking</t>
   </si>
   <si>
-    <t>Fastest Structural Notes (notes/s)</t>
+    <t xml:space="preserve">Fastest Structural Notes (notes/s)</t>
   </si>
   <si>
-    <t>Fastest Stacatto Notes (notes/s)</t>
+    <t xml:space="preserve">Fastest Stacatto Notes (notes/s)</t>
   </si>
   <si>
-    <t>Fastest Ornamental Notes (notes/s)</t>
+    <t xml:space="preserve">Fastest Ornamental Notes (notes/s)</t>
   </si>
   <si>
-    <t>Additional Notes</t>
+    <t xml:space="preserve">Additional Notes</t>
   </si>
   <si>
-    <t>Link</t>
+    <t xml:space="preserve">Link</t>
   </si>
   <si>
-    <t>Tchaikovsky, Pyotr</t>
+    <t xml:space="preserve">Tchaikovsky, Pyotr</t>
   </si>
   <si>
-    <t>1812 Overture, Op.49</t>
+    <t xml:space="preserve">1812 Overture, Op.49</t>
   </si>
   <si>
-    <t>P. Jurgenson</t>
+    <t xml:space="preserve">P. Jurgenson</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t>https://ks4.imslp.info/files/imglnks/usimg/a/ae/IMSLP23744-PMLP03587-Tchaikovsky_-_1812_Overture_(orch._score).pdf</t>
+    <t xml:space="preserve">https://ks4.imslp.info/files/imglnks/usimg/a/ae/IMSLP23744-PMLP03587-Tchaikovsky_-_1812_Overture_(orch._score).pdf</t>
   </si>
   <si>
-    <t>i</t>
+    <t xml:space="preserve">i</t>
   </si>
   <si>
-    <t>Eb major</t>
+    <t xml:space="preserve">Eb major</t>
   </si>
   <si>
-    <t>Largo</t>
+    <t xml:space="preserve">Largo</t>
   </si>
   <si>
-    <t>Q = 60</t>
+    <t xml:space="preserve">Q = 60</t>
   </si>
   <si>
-    <t>Andante</t>
+    <t xml:space="preserve">Andante</t>
   </si>
   <si>
-    <t>C</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t>Q = 80</t>
+    <t xml:space="preserve">Q = 80</t>
   </si>
   <si>
-    <t>ii</t>
+    <t xml:space="preserve">ii</t>
   </si>
   <si>
-    <t>Allegro giusto</t>
+    <t xml:space="preserve">Allegro giusto</t>
   </si>
   <si>
-    <t>Q = 138</t>
+    <t xml:space="preserve">Q = 138</t>
   </si>
   <si>
-    <t>Allegro vivace</t>
+    <t xml:space="preserve">Allegro vivace</t>
   </si>
   <si>
-    <t>Q = 176</t>
+    <t xml:space="preserve">Q = 176</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,7 +189,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -166,279 +200,125 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,23 +378,23 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5">
-        <v>1880.0</v>
+      <c r="C2" s="3" t="n">
+        <v>1880</v>
       </c>
-      <c r="D2" s="5">
-        <v>1882.0</v>
+      <c r="D2" s="3" t="n">
+        <v>1882</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="3"/>
@@ -526,7 +406,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="3"/>
@@ -540,34 +420,34 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8">
-        <v>44259.0</v>
+      <c r="J3" s="7" t="n">
+        <v>44259</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="5">
-        <v>4.0</v>
+      <c r="L3" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="9">
-        <v>8.0</v>
+      <c r="N3" s="8" t="n">
+        <v>8</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -582,7 +462,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -590,25 +470,25 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3" t="n">
         <v>5.33</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3" t="n">
         <v>2.66</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8" t="n">
         <v>10.66</v>
       </c>
       <c r="O4" s="3"/>
@@ -624,33 +504,35 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8" t="n">
         <v>9.2</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8" t="n">
         <v>9.2</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10" t="n">
         <v>13.8</v>
       </c>
       <c r="O5" s="3"/>
@@ -666,7 +548,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -674,24 +556,24 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="8">
-        <v>44259.0</v>
+      <c r="J6" s="7" t="n">
+        <v>44259</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="5">
-        <v>6.0</v>
+      <c r="L6" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="9">
-        <v>8.0</v>
+      <c r="N6" s="8" t="n">
+        <v>8</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -706,7 +588,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -714,25 +596,25 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10" t="n">
         <v>11.73</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10" t="n">
         <v>11.73</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11" t="n">
         <v>20.53</v>
       </c>
       <c r="O7" s="3"/>
@@ -748,7 +630,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -776,7 +658,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -804,7 +686,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -832,7 +714,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -860,7 +742,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -888,7 +770,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -916,7 +798,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -944,7 +826,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -972,7 +854,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1000,7 +882,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1028,7 +910,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1056,7 +938,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1084,7 +966,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1112,7 +994,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1140,7 +1022,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1168,7 +1050,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1196,7 +1078,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1224,7 +1106,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1252,7 +1134,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1280,7 +1162,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1308,7 +1190,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1336,7 +1218,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1364,7 +1246,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1392,7 +1274,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1420,7 +1302,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1448,7 +1330,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1476,7 +1358,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1504,7 +1386,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1532,7 +1414,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1560,7 +1442,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1588,7 +1470,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1616,7 +1498,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1644,7 +1526,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1672,7 +1554,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1700,7 +1582,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1728,7 +1610,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1756,7 +1638,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1784,7 +1666,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1812,7 +1694,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1840,7 +1722,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1868,7 +1750,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1896,7 +1778,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1924,7 +1806,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1952,7 +1834,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1980,7 +1862,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2008,7 +1890,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2036,7 +1918,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2064,7 +1946,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2092,7 +1974,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2120,7 +2002,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2148,7 +2030,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2176,7 +2058,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2204,7 +2086,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2232,7 +2114,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2260,7 +2142,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2288,7 +2170,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2316,7 +2198,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2344,7 +2226,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2372,7 +2254,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2400,7 +2282,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2428,7 +2310,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2456,7 +2338,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2484,7 +2366,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2512,7 +2394,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2540,7 +2422,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2568,7 +2450,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2596,7 +2478,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2624,7 +2506,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2652,7 +2534,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2680,7 +2562,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2708,7 +2590,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2736,7 +2618,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2764,7 +2646,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2792,7 +2674,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2820,7 +2702,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2848,7 +2730,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2876,7 +2758,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2904,7 +2786,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2932,7 +2814,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2960,7 +2842,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2988,7 +2870,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3016,7 +2898,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3044,7 +2926,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3072,7 +2954,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3100,7 +2982,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3128,7 +3010,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3156,7 +3038,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3184,7 +3066,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3212,7 +3094,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3240,7 +3122,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3268,7 +3150,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3296,7 +3178,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3324,7 +3206,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3352,7 +3234,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3380,7 +3262,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3408,7 +3290,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3436,7 +3318,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3464,7 +3346,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3492,7 +3374,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3520,7 +3402,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3548,7 +3430,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3576,7 +3458,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3604,7 +3486,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3632,7 +3514,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3660,7 +3542,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3688,7 +3570,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3716,7 +3598,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3744,7 +3626,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3772,7 +3654,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3800,7 +3682,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3828,7 +3710,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3856,7 +3738,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3884,7 +3766,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3912,7 +3794,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3940,7 +3822,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3968,7 +3850,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3996,7 +3878,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4024,7 +3906,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4052,7 +3934,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4080,7 +3962,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4108,7 +3990,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4136,7 +4018,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4164,7 +4046,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4192,7 +4074,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4220,7 +4102,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4248,7 +4130,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4276,7 +4158,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4304,7 +4186,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4332,7 +4214,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4360,7 +4242,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4388,7 +4270,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4416,7 +4298,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4444,7 +4326,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4472,7 +4354,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4500,7 +4382,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4528,7 +4410,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4556,7 +4438,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4584,7 +4466,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4612,7 +4494,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4640,7 +4522,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4668,7 +4550,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4696,7 +4578,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4724,7 +4606,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4752,7 +4634,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4780,7 +4662,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4808,7 +4690,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4836,7 +4718,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4864,7 +4746,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4892,7 +4774,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4920,7 +4802,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4948,7 +4830,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4976,7 +4858,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5004,7 +4886,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5032,7 +4914,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5060,7 +4942,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5088,7 +4970,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5116,7 +4998,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5144,7 +5026,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5172,7 +5054,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5200,7 +5082,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5228,7 +5110,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5256,7 +5138,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5284,7 +5166,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5312,7 +5194,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5340,7 +5222,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5368,7 +5250,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5396,7 +5278,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5424,7 +5306,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5452,7 +5334,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5480,7 +5362,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5508,7 +5390,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5536,7 +5418,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5564,7 +5446,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5592,7 +5474,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5620,7 +5502,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5648,7 +5530,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5676,7 +5558,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5704,7 +5586,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5732,7 +5614,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5760,7 +5642,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5788,7 +5670,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5816,7 +5698,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5844,7 +5726,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5872,7 +5754,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5900,7 +5782,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5928,7 +5810,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5956,7 +5838,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5984,7 +5866,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6012,7 +5894,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6040,7 +5922,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6068,7 +5950,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6096,7 +5978,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6124,7 +6006,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6152,7 +6034,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6180,7 +6062,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6208,7 +6090,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6236,7 +6118,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6264,7 +6146,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6292,7 +6174,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6320,7 +6202,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6348,7 +6230,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6376,7 +6258,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6404,7 +6286,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6432,7 +6314,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6460,7 +6342,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6488,7 +6370,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6516,7 +6398,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6544,7 +6426,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6572,7 +6454,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6600,7 +6482,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6628,7 +6510,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6656,7 +6538,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6684,7 +6566,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6712,7 +6594,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6740,7 +6622,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6768,7 +6650,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6796,7 +6678,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6824,7 +6706,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6852,7 +6734,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -6880,7 +6762,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -6908,7 +6790,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -6936,7 +6818,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -6964,7 +6846,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -6992,7 +6874,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -7020,7 +6902,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -7048,7 +6930,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -7076,7 +6958,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -7104,7 +6986,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -7132,7 +7014,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7160,7 +7042,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7188,7 +7070,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7216,7 +7098,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7244,7 +7126,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7272,7 +7154,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7300,7 +7182,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7328,7 +7210,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7356,7 +7238,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7384,7 +7266,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7412,7 +7294,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7440,7 +7322,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7468,7 +7350,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7496,7 +7378,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7524,7 +7406,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7552,7 +7434,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7580,7 +7462,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7608,7 +7490,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7636,7 +7518,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7664,7 +7546,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7692,7 +7574,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7720,7 +7602,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7748,7 +7630,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7776,7 +7658,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7804,7 +7686,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7832,7 +7714,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -7860,7 +7742,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -7888,7 +7770,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -7916,7 +7798,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -7944,7 +7826,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -7972,7 +7854,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -8000,7 +7882,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -8028,7 +7910,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -8056,7 +7938,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -8084,7 +7966,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -8112,7 +7994,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -8140,7 +8022,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8168,7 +8050,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8196,7 +8078,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8224,7 +8106,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8252,7 +8134,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8280,7 +8162,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8308,7 +8190,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8336,7 +8218,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8364,7 +8246,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8392,7 +8274,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8420,7 +8302,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8448,7 +8330,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8476,7 +8358,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8504,7 +8386,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8532,7 +8414,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8560,7 +8442,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8588,7 +8470,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8616,7 +8498,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8644,7 +8526,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8672,7 +8554,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8700,7 +8582,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8728,7 +8610,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8756,7 +8638,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8784,7 +8666,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8812,7 +8694,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8840,7 +8722,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -8868,7 +8750,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -8896,7 +8778,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -8924,7 +8806,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -8952,7 +8834,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -8980,7 +8862,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -9008,7 +8890,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -9036,7 +8918,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -9064,7 +8946,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -9092,7 +8974,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -9120,7 +9002,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -9148,7 +9030,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -9176,7 +9058,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9204,7 +9086,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9232,7 +9114,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9260,7 +9142,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9288,7 +9170,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9316,7 +9198,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9344,7 +9226,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9372,7 +9254,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9400,7 +9282,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9428,7 +9310,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9456,7 +9338,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9484,7 +9366,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9512,7 +9394,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9540,7 +9422,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9568,7 +9450,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9596,7 +9478,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9624,7 +9506,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9652,7 +9534,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9680,7 +9562,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9708,7 +9590,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9736,7 +9618,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9764,7 +9646,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9792,7 +9674,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -9820,7 +9702,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -9848,7 +9730,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -9876,7 +9758,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -9904,7 +9786,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -9932,7 +9814,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -9960,7 +9842,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -9988,7 +9870,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -10016,7 +9898,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -10044,7 +9926,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -10072,7 +9954,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -10100,7 +9982,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -10128,7 +10010,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -10156,7 +10038,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10184,7 +10066,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10212,7 +10094,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10240,7 +10122,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10268,7 +10150,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10296,7 +10178,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10324,7 +10206,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10352,7 +10234,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10380,7 +10262,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10408,7 +10290,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10436,7 +10318,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10464,7 +10346,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10492,7 +10374,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10520,7 +10402,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10548,7 +10430,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10576,7 +10458,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10604,7 +10486,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10632,7 +10514,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10660,7 +10542,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10688,7 +10570,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10716,7 +10598,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10744,7 +10626,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10772,7 +10654,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10800,7 +10682,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -10828,7 +10710,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -10856,7 +10738,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -10884,7 +10766,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -10912,7 +10794,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -10940,7 +10822,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -10968,7 +10850,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -10996,7 +10878,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -11024,7 +10906,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -11052,7 +10934,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -11080,7 +10962,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -11108,7 +10990,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -11136,7 +11018,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -11164,7 +11046,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11192,7 +11074,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11220,7 +11102,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11248,7 +11130,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11276,7 +11158,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11304,7 +11186,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11332,7 +11214,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11360,7 +11242,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11388,7 +11270,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11416,7 +11298,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11444,7 +11326,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11472,7 +11354,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11500,7 +11382,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11528,7 +11410,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11556,7 +11438,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11584,7 +11466,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11612,7 +11494,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11640,7 +11522,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11668,7 +11550,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11696,7 +11578,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11724,7 +11606,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11752,7 +11634,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11780,7 +11662,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -11808,7 +11690,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -11836,7 +11718,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -11864,7 +11746,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -11892,7 +11774,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -11920,7 +11802,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -11948,7 +11830,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -11976,7 +11858,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -12004,7 +11886,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -12032,7 +11914,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -12060,7 +11942,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -12088,7 +11970,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -12116,7 +11998,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -12144,7 +12026,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -12172,7 +12054,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12200,7 +12082,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12228,7 +12110,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12256,7 +12138,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12284,7 +12166,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12312,7 +12194,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12340,7 +12222,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12368,7 +12250,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12396,7 +12278,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12424,7 +12306,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12452,7 +12334,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12480,7 +12362,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12508,7 +12390,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12536,7 +12418,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12564,7 +12446,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12592,7 +12474,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12620,7 +12502,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12648,7 +12530,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12676,7 +12558,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12704,7 +12586,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12732,7 +12614,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12760,7 +12642,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12788,7 +12670,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -12816,7 +12698,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -12844,7 +12726,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -12872,7 +12754,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -12900,7 +12782,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -12928,7 +12810,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -12956,7 +12838,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -12984,7 +12866,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -13012,7 +12894,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -13040,7 +12922,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -13068,7 +12950,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -13096,7 +12978,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -13124,7 +13006,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -13152,7 +13034,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -13180,7 +13062,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13208,7 +13090,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13236,7 +13118,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13264,7 +13146,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13292,7 +13174,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13320,7 +13202,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13348,7 +13230,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13376,7 +13258,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13404,7 +13286,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13432,7 +13314,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13460,7 +13342,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13488,7 +13370,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13516,7 +13398,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13544,7 +13426,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13572,7 +13454,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13600,7 +13482,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13628,7 +13510,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13656,7 +13538,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13684,7 +13566,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13712,7 +13594,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13740,7 +13622,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13768,7 +13650,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13796,7 +13678,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -13824,7 +13706,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -13852,7 +13734,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -13880,7 +13762,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -13908,7 +13790,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -13936,7 +13818,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -13964,7 +13846,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -13992,7 +13874,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -14020,7 +13902,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -14048,7 +13930,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -14076,7 +13958,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -14104,7 +13986,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -14132,7 +14014,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -14160,7 +14042,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14188,7 +14070,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14216,7 +14098,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14244,7 +14126,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14272,7 +14154,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14300,7 +14182,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14328,7 +14210,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14356,7 +14238,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14384,7 +14266,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14412,7 +14294,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14440,7 +14322,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14468,7 +14350,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14496,7 +14378,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14524,7 +14406,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14552,7 +14434,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14580,7 +14462,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14608,7 +14490,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14636,7 +14518,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14664,7 +14546,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14692,7 +14574,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14720,7 +14602,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14748,7 +14630,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14776,7 +14658,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14804,7 +14686,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -14832,7 +14714,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -14860,7 +14742,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -14888,7 +14770,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -14916,7 +14798,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -14944,7 +14826,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -14972,7 +14854,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -15000,7 +14882,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -15028,7 +14910,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -15056,7 +14938,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -15084,7 +14966,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -15112,7 +14994,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -15140,7 +15022,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -15168,7 +15050,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15196,7 +15078,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15224,7 +15106,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15252,7 +15134,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15280,7 +15162,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15308,7 +15190,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15336,7 +15218,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15364,7 +15246,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15392,7 +15274,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15420,7 +15302,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15448,7 +15330,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15476,7 +15358,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15504,7 +15386,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15532,7 +15414,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15560,7 +15442,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15588,7 +15470,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15616,7 +15498,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15644,7 +15526,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15672,7 +15554,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15700,7 +15582,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15728,7 +15610,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15756,7 +15638,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15784,7 +15666,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -15812,7 +15694,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -15840,7 +15722,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -15868,7 +15750,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -15896,7 +15778,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -15924,7 +15806,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -15952,7 +15834,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -15980,7 +15862,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -16008,7 +15890,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -16036,7 +15918,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -16064,7 +15946,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -16092,7 +15974,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -16120,7 +16002,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -16148,7 +16030,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -16176,7 +16058,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16204,7 +16086,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16232,7 +16114,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16260,7 +16142,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16288,7 +16170,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16316,7 +16198,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16344,7 +16226,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16372,7 +16254,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16400,7 +16282,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16428,7 +16310,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16456,7 +16338,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16484,7 +16366,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16512,7 +16394,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16540,7 +16422,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16568,7 +16450,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16596,7 +16478,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16624,7 +16506,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16652,7 +16534,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16680,7 +16562,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16708,7 +16590,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16736,7 +16618,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16764,7 +16646,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16792,7 +16674,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -16820,7 +16702,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -16848,7 +16730,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -16876,7 +16758,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -16904,7 +16786,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -16932,7 +16814,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -16960,7 +16842,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -16988,7 +16870,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -17016,7 +16898,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -17044,7 +16926,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -17072,7 +16954,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -17100,7 +16982,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -17128,7 +17010,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -17156,7 +17038,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17184,7 +17066,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17212,7 +17094,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17240,7 +17122,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17268,7 +17150,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17296,7 +17178,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17324,7 +17206,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17352,7 +17234,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17380,7 +17262,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17408,7 +17290,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17436,7 +17318,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17464,7 +17346,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17492,7 +17374,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17520,7 +17402,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17548,7 +17430,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17576,7 +17458,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17604,7 +17486,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17632,7 +17514,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17660,7 +17542,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17688,7 +17570,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17716,7 +17598,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17744,7 +17626,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17772,7 +17654,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17800,7 +17682,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -17828,7 +17710,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -17856,7 +17738,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -17884,7 +17766,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -17912,7 +17794,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -17940,7 +17822,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -17968,7 +17850,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -17996,7 +17878,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -18024,7 +17906,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -18052,7 +17934,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -18080,7 +17962,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -18108,7 +17990,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -18136,7 +18018,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -18164,7 +18046,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18192,7 +18074,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18220,7 +18102,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18248,7 +18130,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18276,7 +18158,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18304,7 +18186,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18332,7 +18214,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18360,7 +18242,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18388,7 +18270,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18416,7 +18298,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18444,7 +18326,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18472,7 +18354,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18500,7 +18382,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18528,7 +18410,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18556,7 +18438,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18584,7 +18466,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18612,7 +18494,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18640,7 +18522,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18668,7 +18550,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18696,7 +18578,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18724,7 +18606,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18752,7 +18634,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18780,7 +18662,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -18808,7 +18690,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -18836,7 +18718,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -18864,7 +18746,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -18892,7 +18774,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -18920,7 +18802,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -18948,7 +18830,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -18976,7 +18858,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -19004,7 +18886,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -19032,7 +18914,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -19060,7 +18942,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -19088,7 +18970,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -19116,7 +18998,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -19144,7 +19026,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -19172,7 +19054,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19200,7 +19082,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19228,7 +19110,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19256,7 +19138,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19284,7 +19166,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19312,7 +19194,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19340,7 +19222,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19368,7 +19250,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19396,7 +19278,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19424,7 +19306,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19452,7 +19334,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19480,7 +19362,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19508,7 +19390,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19536,7 +19418,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19564,7 +19446,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19592,7 +19474,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19620,7 +19502,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19648,7 +19530,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19676,7 +19558,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19704,7 +19586,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19732,7 +19614,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19760,7 +19642,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19788,7 +19670,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -19816,7 +19698,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -19844,7 +19726,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -19872,7 +19754,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -19900,7 +19782,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -19928,7 +19810,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -19956,7 +19838,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -19984,7 +19866,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -20012,7 +19894,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -20040,7 +19922,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -20068,7 +19950,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -20096,7 +19978,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -20124,7 +20006,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -20152,7 +20034,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -20180,7 +20062,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20208,7 +20090,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20236,7 +20118,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20264,7 +20146,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20292,7 +20174,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20320,7 +20202,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20348,7 +20230,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20376,7 +20258,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20404,7 +20286,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20432,7 +20314,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20460,7 +20342,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20488,7 +20370,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20516,7 +20398,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20544,7 +20426,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20572,7 +20454,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20600,7 +20482,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20628,7 +20510,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20656,7 +20538,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20684,7 +20566,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20712,7 +20594,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20740,7 +20622,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20768,7 +20650,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20796,7 +20678,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -20824,7 +20706,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -20852,7 +20734,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -20880,7 +20762,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -20908,7 +20790,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -20936,7 +20818,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -20964,7 +20846,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -20992,7 +20874,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -21020,7 +20902,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -21048,7 +20930,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -21076,7 +20958,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -21104,7 +20986,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -21132,7 +21014,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -21160,7 +21042,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21188,7 +21070,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21216,7 +21098,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21244,7 +21126,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21272,7 +21154,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21300,7 +21182,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21328,7 +21210,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21356,7 +21238,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21384,7 +21266,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21412,7 +21294,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21440,7 +21322,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21468,7 +21350,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21496,7 +21378,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21524,7 +21406,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21552,7 +21434,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21580,7 +21462,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21608,7 +21490,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21636,7 +21518,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21664,7 +21546,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21692,7 +21574,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21720,7 +21602,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21748,7 +21630,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21776,7 +21658,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21804,7 +21686,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -21832,7 +21714,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -21860,7 +21742,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -21888,7 +21770,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -21916,7 +21798,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -21944,7 +21826,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -21972,7 +21854,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -22000,7 +21882,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -22028,7 +21910,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -22056,7 +21938,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -22084,7 +21966,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -22112,7 +21994,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -22140,7 +22022,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -22168,7 +22050,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22196,7 +22078,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22224,7 +22106,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22252,7 +22134,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22280,7 +22162,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22308,7 +22190,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22336,7 +22218,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22364,7 +22246,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22392,7 +22274,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22420,7 +22302,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22448,7 +22330,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22476,7 +22358,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22504,7 +22386,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22532,7 +22414,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22560,7 +22442,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22588,7 +22470,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22616,7 +22498,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22644,7 +22526,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22672,7 +22554,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22700,7 +22582,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22728,7 +22610,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22756,7 +22638,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22784,7 +22666,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -22812,7 +22694,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -22840,7 +22722,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -22868,7 +22750,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -22896,7 +22778,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -22924,7 +22806,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -22952,7 +22834,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -22980,7 +22862,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -23008,7 +22890,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -23036,7 +22918,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -23064,7 +22946,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -23092,7 +22974,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -23120,7 +23002,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -23148,7 +23030,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -23176,7 +23058,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23204,7 +23086,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23232,7 +23114,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23260,7 +23142,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23288,7 +23170,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23316,7 +23198,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23344,7 +23226,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23372,7 +23254,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23400,7 +23282,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23428,7 +23310,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23456,7 +23338,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23484,7 +23366,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23512,7 +23394,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23540,7 +23422,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23568,7 +23450,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23596,7 +23478,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23624,7 +23506,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23652,7 +23534,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23680,7 +23562,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23708,7 +23590,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23736,7 +23618,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23764,7 +23646,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23792,7 +23674,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -23820,7 +23702,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -23848,7 +23730,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -23876,7 +23758,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -23904,7 +23786,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -23932,7 +23814,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -23960,7 +23842,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -23988,7 +23870,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -24016,7 +23898,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -24044,7 +23926,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -24072,7 +23954,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -24100,7 +23982,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -24128,7 +24010,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -24156,7 +24038,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24184,7 +24066,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24212,7 +24094,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24240,7 +24122,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24268,7 +24150,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24296,7 +24178,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24324,7 +24206,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24352,7 +24234,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24380,7 +24262,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24408,7 +24290,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24436,7 +24318,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24464,7 +24346,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24492,7 +24374,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24520,7 +24402,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24548,7 +24430,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24576,7 +24458,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24604,7 +24486,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24632,7 +24514,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24660,7 +24542,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24688,7 +24570,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24716,7 +24598,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24744,7 +24626,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24772,7 +24654,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24800,7 +24682,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -24828,7 +24710,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -24856,7 +24738,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -24884,7 +24766,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -24912,7 +24794,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -24940,7 +24822,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -24968,7 +24850,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -24996,7 +24878,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -25024,7 +24906,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -25052,7 +24934,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -25080,7 +24962,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -25108,7 +24990,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -25136,7 +25018,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -25164,7 +25046,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25192,7 +25074,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25220,7 +25102,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25248,7 +25130,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25276,7 +25158,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25304,7 +25186,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25332,7 +25214,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25360,7 +25242,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25388,7 +25270,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25416,7 +25298,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25444,7 +25326,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25472,7 +25354,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25500,7 +25382,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25528,7 +25410,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25556,7 +25438,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25584,7 +25466,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25612,7 +25494,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25640,7 +25522,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25668,7 +25550,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25696,7 +25578,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25724,7 +25606,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25752,7 +25634,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25780,7 +25662,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -25808,7 +25690,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -25836,7 +25718,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -25864,7 +25746,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -25892,7 +25774,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -25920,7 +25802,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -25948,7 +25830,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -25976,7 +25858,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -26004,7 +25886,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -26032,7 +25914,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -26060,7 +25942,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -26088,7 +25970,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -26116,7 +25998,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -26144,7 +26026,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -26172,7 +26054,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26200,7 +26082,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26228,7 +26110,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26256,7 +26138,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26284,7 +26166,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26312,7 +26194,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26340,7 +26222,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26368,7 +26250,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26396,7 +26278,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26424,7 +26306,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26452,7 +26334,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26480,7 +26362,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26508,7 +26390,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26536,7 +26418,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26564,7 +26446,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26592,7 +26474,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26620,7 +26502,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26648,7 +26530,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26676,7 +26558,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26704,7 +26586,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26732,7 +26614,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26760,7 +26642,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26788,7 +26670,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -26816,7 +26698,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -26844,7 +26726,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -26872,7 +26754,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -26900,7 +26782,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -26928,7 +26810,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -26956,7 +26838,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -26984,7 +26866,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -27012,7 +26894,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -27040,7 +26922,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -27068,7 +26950,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -27096,7 +26978,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -27124,7 +27006,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -27152,7 +27034,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -27180,7 +27062,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27208,7 +27090,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27236,7 +27118,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27264,7 +27146,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27292,7 +27174,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27320,7 +27202,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27348,7 +27230,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27376,7 +27258,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27404,7 +27286,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27432,7 +27314,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27460,7 +27342,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27488,7 +27370,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27516,7 +27398,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27544,7 +27426,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27572,7 +27454,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27600,7 +27482,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27628,7 +27510,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27656,7 +27538,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27684,7 +27566,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27712,7 +27594,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27740,7 +27622,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27768,7 +27650,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27796,7 +27678,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -27824,7 +27706,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -27852,7 +27734,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -27880,7 +27762,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -27908,7 +27790,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -27936,7 +27818,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -27964,7 +27846,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -27992,7 +27874,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -28020,7 +27902,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -28048,7 +27930,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -28076,7 +27958,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -28104,7 +27986,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -28132,7 +28014,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -28160,7 +28042,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28188,7 +28070,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28216,7 +28098,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28244,7 +28126,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28272,7 +28154,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28300,7 +28182,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28328,7 +28210,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28356,7 +28238,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28384,7 +28266,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28412,7 +28294,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28440,7 +28322,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28468,7 +28350,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28496,7 +28378,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28524,7 +28406,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -28554,8 +28436,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="P2"/>
+    <hyperlink ref="P2" r:id="rId1" display="https://ks4.imslp.info/files/imglnks/usimg/a/ae/IMSLP23744-PMLP03587-Tchaikovsky_-_1812_Overture_(orch._score).pdf"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>